--- a/ValueSet-no-basis-connection-type.valueset.xlsx
+++ b/ValueSet-no-basis-connection-type.valueset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Direktoratet for e-helse</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Norway</t>
   </si>
   <si>
     <t>Description</t>
@@ -237,7 +243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -331,20 +337,28 @@
       <c r="A11" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -366,28 +380,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -409,28 +423,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-no-basis-connection-type.valueset.xlsx
+++ b/ValueSet-no-basis-connection-type.valueset.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.17-alpha</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-no-basis-connection-type.valueset.xlsx
+++ b/ValueSet-no-basis-connection-type.valueset.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
